--- a/DressUp/Config/DoubleScrollViewTem.xlsx
+++ b/DressUp/Config/DoubleScrollViewTem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\unityproject\dress\ADB Unity Project\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\githubProj\iktest\DressUp\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422B6583-33E4-4452-AF36-FB059970289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF43FD-2C17-40F2-8E0D-6FF633D6D37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>#key</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Skirt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Shoes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -160,11 +156,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Skirt2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coat</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1583,13 +1591,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1663,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>17</v>
@@ -1680,7 +1688,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
@@ -1697,7 +1705,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
@@ -1711,10 +1719,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
@@ -1725,13 +1733,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
@@ -1745,12 +1753,29 @@
         <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
